--- a/BE/DreamyShop.Infrastructure/Resources/Reports/InputReportTest2.xlsx
+++ b/BE/DreamyShop.Infrastructure/Resources/Reports/InputReportTest2.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -62,30 +63,9 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Laptop Demon</t>
-  </si>
-  <si>
-    <t>LTDM</t>
-  </si>
-  <si>
-    <t>Grouped</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>Rolex watch</t>
   </si>
   <si>
@@ -107,50 +87,23 @@
     <t>Options</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Black, White</t>
-  </si>
-  <si>
     <t>Option Value</t>
   </si>
   <si>
-    <t>Black, 15.6</t>
-  </si>
-  <si>
-    <t>White, 14</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>15.6, 14</t>
-  </si>
-  <si>
-    <t>Black, 14</t>
-  </si>
-  <si>
-    <t>White, 15.6</t>
-  </si>
-  <si>
-    <t>LT-A14</t>
-  </si>
-  <si>
-    <t>LT-A156</t>
-  </si>
-  <si>
-    <t>LT-B156</t>
-  </si>
-  <si>
-    <t>LT-B14</t>
+    <t>Họ Tên</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Giang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +119,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF2D3847"/>
+      <name val="Be Vietnam Pro"/>
     </font>
   </fonts>
   <fills count="4">
@@ -187,27 +146,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -238,132 +182,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,20 +512,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="47.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,238 +553,973 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3">
+    <row r="2" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25.5">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="25.5">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="25.5">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="25.5">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="25.5">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="25.5">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="25.5">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="25.5">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="25.5">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="25.5">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="25.5">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25.5">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="25.5">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="25.5">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="25.5">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="25.5">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="25.5">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="25.5">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="25.5">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="25.5">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="25.5">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="25.5">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="25.5">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="3">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="4">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="4">
-        <v>27</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="3">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B4" s="2" t="str">
+        <f>INDEX($A$4:$A$5, MOD(ROW()-1, COUNTA($A$4:$A$5))+1)</f>
+        <v>Giang</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>11999</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>